--- a/04_요구사항 분석/요건정의서_폴리모피즘 팀v2_(통합본).xlsx
+++ b/04_요구사항 분석/요건정의서_폴리모피즘 팀v2_(통합본).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nfkim_jomhyxq\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B97BCE-088A-4703-B68D-10443DF009A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6E6B7F-1231-4848-8C77-ACE14BA9528E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요건정의서" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="271">
   <si>
     <t>회원가입</t>
   </si>
@@ -1132,6 +1132,65 @@
   <si>
     <t>상품이 여러 개 담겨 있을 경우, 선택버튼으로
 선택된 상품만 구매 할 수 있으며, 전체를 선택하여 전체를 구매 할 수도 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)메인 화면에서 회원 가입이 가능하다.
+2)회원 가입 시 아이디/패스워드/연락처/주소/생년월일 입력한다.
+2)최초 회원가입 시 일반회원으로 등록된다.
+3)등록 된 회원만 상품 구매 및 정기 결제(구독)가 가능하다.
+4)등록 된 회원만 마이페이지 이용이 가능하다.
+5)등록 된 회원은 모든 게시판 사용이 가능하고, 미등록 회원은 게시판 조회만 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)아이디는 영문, 숫자, 특수기호를 넣을 수 있다.
+2)아이디는 영문, 숫자, 특수기호를 조합해서 20자 내로 정할 수 있다.
+3)등록 된 회원 아이디로 로그인 후 상품 구매 및 정기 결제(구독), 마이페이지,게시판 사용이 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)비밀번호는 영문, 숫자, 특수기호를 넣을 수 있다.
+2)비밀번호는 영문, 숫자, 특수기호를 조합해서 20자 내로 정할 수 있다.
+3)등록 된 회원 비밀번호로 로그인 후 상품 구매 및 정기 결제(구독), 마이페이지,게시판 사용이 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 유저로 등록된 권한 접근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG연동, 간편 결제시스템 연동
+(네이버페이, 카카오페이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매한 상품에 대한 리뷰 등록, 
+사진 첨부 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성한 리뷰 확인 가능, 
+타인이 작성한 리뷰 조회 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)아이디는 영문, 숫자, 특수기호를 넣을 수 있다.
+2)아이디 조합이 등록 되어있는 아이디와 동일 한 경우 '사용불가한 아이디 입니다' 
+라고 메세지로 알려준다. 
+3)아이디 조합이 등록 되어있는 아이디와 동일하지 않을 경우만 아이디 등록이 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)사이트에 아이디, 패스워드를 입력하지 않고, 
+네이버 로그인을 선택해서 네이버 아이디, 패스워드로 로그인 가능하다.
+2)네이버로 로그인 하더라도 회원가입은 별도로 해야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)사이트에 아이디, 패스워드를 입력하지 않고, 
+카카오톡 로그인을 선택해서 카톡 아이디, 패스워드로 로그인 가능하다.
+2)카톡으로 로그인 하더라도 회원가입은 별도로 해야한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1947,32 +2006,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1998,100 +2111,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -2100,6 +2153,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2109,14 +2165,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2124,7 +2174,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2409,8 +2468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H65"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2465,10 +2524,10 @@
       <c r="B5" s="15">
         <v>1</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="83" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="28" t="s">
@@ -2486,8 +2545,8 @@
       <c r="B6" s="16">
         <v>2</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="49"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="1" t="s">
         <v>109</v>
       </c>
@@ -2503,7 +2562,7 @@
       <c r="B7" s="16">
         <v>3</v>
       </c>
-      <c r="C7" s="46"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="36" t="s">
         <v>114</v>
       </c>
@@ -2522,8 +2581,8 @@
       <c r="B8" s="16">
         <v>4</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="50" t="s">
+      <c r="C8" s="81"/>
+      <c r="D8" s="85" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2541,8 +2600,8 @@
       <c r="B9" s="16">
         <v>5</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="49"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="84"/>
       <c r="E9" s="1" t="s">
         <v>126</v>
       </c>
@@ -2556,8 +2615,8 @@
       <c r="B10" s="16">
         <v>6</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="50" t="s">
+      <c r="C10" s="81"/>
+      <c r="D10" s="85" t="s">
         <v>72</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2575,8 +2634,8 @@
       <c r="B11" s="16">
         <v>7</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="48"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
@@ -2592,8 +2651,8 @@
       <c r="B12" s="16">
         <v>8</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="48"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="1" t="s">
         <v>76</v>
       </c>
@@ -2607,8 +2666,8 @@
       <c r="B13" s="16">
         <v>9</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="49"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="84"/>
       <c r="E13" s="1" t="s">
         <v>20</v>
       </c>
@@ -2622,8 +2681,8 @@
       <c r="B14" s="16">
         <v>10</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="51" t="s">
+      <c r="C14" s="81"/>
+      <c r="D14" s="86" t="s">
         <v>44</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -2641,8 +2700,8 @@
       <c r="B15" s="16">
         <v>11</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="52"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="87"/>
       <c r="E15" s="7" t="s">
         <v>36</v>
       </c>
@@ -2658,8 +2717,8 @@
       <c r="B16" s="16">
         <v>12</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="52"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="7" t="s">
         <v>4</v>
       </c>
@@ -2673,8 +2732,8 @@
       <c r="B17" s="16">
         <v>13</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="53"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="88"/>
       <c r="E17" s="7" t="s">
         <v>3</v>
       </c>
@@ -2688,8 +2747,8 @@
       <c r="B18" s="16">
         <v>14</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="50" t="s">
+      <c r="C18" s="81"/>
+      <c r="D18" s="85" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2705,8 +2764,8 @@
       <c r="B19" s="16">
         <v>15</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="48"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="83"/>
       <c r="E19" s="1" t="s">
         <v>119</v>
       </c>
@@ -2724,8 +2783,8 @@
       <c r="B20" s="16">
         <v>16</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="48"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="83"/>
       <c r="E20" s="1" t="s">
         <v>38</v>
       </c>
@@ -2739,8 +2798,8 @@
       <c r="B21" s="16">
         <v>17</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="49"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="84"/>
       <c r="E21" s="1" t="s">
         <v>79</v>
       </c>
@@ -2754,8 +2813,8 @@
       <c r="B22" s="16">
         <v>18</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="50" t="s">
+      <c r="C22" s="81"/>
+      <c r="D22" s="85" t="s">
         <v>80</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -2771,8 +2830,8 @@
       <c r="B23" s="16">
         <v>19</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="48"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="83"/>
       <c r="E23" s="1" t="s">
         <v>124</v>
       </c>
@@ -2790,8 +2849,8 @@
       <c r="B24" s="16">
         <v>20</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="49"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="84"/>
       <c r="E24" s="1" t="s">
         <v>82</v>
       </c>
@@ -2805,8 +2864,8 @@
       <c r="B25" s="17">
         <v>21</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="50" t="s">
+      <c r="C25" s="81"/>
+      <c r="D25" s="85" t="s">
         <v>106</v>
       </c>
       <c r="E25" s="26" t="s">
@@ -2826,8 +2885,8 @@
       <c r="B26" s="17">
         <v>22</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="48"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="83"/>
       <c r="E26" s="26" t="s">
         <v>103</v>
       </c>
@@ -2843,8 +2902,8 @@
       <c r="B27" s="17">
         <v>23</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="54"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="89"/>
       <c r="E27" s="9" t="s">
         <v>104</v>
       </c>
@@ -2860,10 +2919,10 @@
       <c r="B28" s="15">
         <v>24</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="75" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -2879,8 +2938,8 @@
       <c r="B29" s="16">
         <v>25</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="58"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="76"/>
       <c r="E29" s="1" t="s">
         <v>9</v>
       </c>
@@ -2896,8 +2955,8 @@
       <c r="B30" s="16">
         <v>26</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="59" t="s">
+      <c r="C30" s="74"/>
+      <c r="D30" s="77" t="s">
         <v>113</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -2915,8 +2974,8 @@
       <c r="B31" s="16">
         <v>27</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="58"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="76"/>
       <c r="E31" s="1" t="s">
         <v>140</v>
       </c>
@@ -2932,8 +2991,8 @@
       <c r="B32" s="16">
         <v>28</v>
       </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="59" t="s">
+      <c r="C32" s="74"/>
+      <c r="D32" s="77" t="s">
         <v>141</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -2951,8 +3010,8 @@
       <c r="B33" s="16">
         <v>29</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="58"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="76"/>
       <c r="E33" s="1" t="s">
         <v>109</v>
       </c>
@@ -2968,7 +3027,7 @@
       <c r="B34" s="16">
         <v>30</v>
       </c>
-      <c r="C34" s="56"/>
+      <c r="C34" s="74"/>
       <c r="D34" s="1" t="s">
         <v>114</v>
       </c>
@@ -2987,8 +3046,8 @@
       <c r="B35" s="16">
         <v>31</v>
       </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="59" t="s">
+      <c r="C35" s="74"/>
+      <c r="D35" s="77" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -3004,8 +3063,8 @@
       <c r="B36" s="16">
         <v>32</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="60"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="78"/>
       <c r="E36" s="1" t="s">
         <v>46</v>
       </c>
@@ -3023,8 +3082,8 @@
       <c r="B37" s="16">
         <v>33</v>
       </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="60"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="78"/>
       <c r="E37" s="1" t="s">
         <v>50</v>
       </c>
@@ -3038,8 +3097,8 @@
       <c r="B38" s="16">
         <v>34</v>
       </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="60"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="78"/>
       <c r="E38" s="1" t="s">
         <v>52</v>
       </c>
@@ -3053,8 +3112,8 @@
       <c r="B39" s="16">
         <v>35</v>
       </c>
-      <c r="C39" s="56"/>
-      <c r="D39" s="60"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="78"/>
       <c r="E39" s="1" t="s">
         <v>53</v>
       </c>
@@ -3068,8 +3127,8 @@
       <c r="B40" s="16">
         <v>36</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="60"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="78"/>
       <c r="E40" s="1" t="s">
         <v>149</v>
       </c>
@@ -3083,8 +3142,8 @@
       <c r="B41" s="16">
         <v>37</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="58"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="76"/>
       <c r="E41" s="1" t="s">
         <v>47</v>
       </c>
@@ -3098,8 +3157,8 @@
       <c r="B42" s="16">
         <v>38</v>
       </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="59" t="s">
+      <c r="C42" s="74"/>
+      <c r="D42" s="77" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -3117,8 +3176,8 @@
       <c r="B43" s="16">
         <v>39</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="60"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="78"/>
       <c r="E43" s="1" t="s">
         <v>24</v>
       </c>
@@ -3136,8 +3195,8 @@
       <c r="B44" s="16">
         <v>40</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="60"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="78"/>
       <c r="E44" s="1" t="s">
         <v>25</v>
       </c>
@@ -3151,8 +3210,8 @@
       <c r="B45" s="16">
         <v>41</v>
       </c>
-      <c r="C45" s="56"/>
-      <c r="D45" s="58"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="76"/>
       <c r="E45" s="1" t="s">
         <v>26</v>
       </c>
@@ -3166,7 +3225,7 @@
       <c r="B46" s="16">
         <v>42</v>
       </c>
-      <c r="C46" s="56"/>
+      <c r="C46" s="74"/>
       <c r="D46" s="7" t="s">
         <v>31</v>
       </c>
@@ -3185,8 +3244,8 @@
       <c r="B47" s="16">
         <v>43</v>
       </c>
-      <c r="C47" s="56"/>
-      <c r="D47" s="61" t="s">
+      <c r="C47" s="74"/>
+      <c r="D47" s="79" t="s">
         <v>160</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -3202,8 +3261,8 @@
       <c r="B48" s="16">
         <v>44</v>
       </c>
-      <c r="C48" s="56"/>
-      <c r="D48" s="62"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="80"/>
       <c r="E48" s="1" t="s">
         <v>101</v>
       </c>
@@ -3221,7 +3280,7 @@
       <c r="B49" s="16">
         <v>45</v>
       </c>
-      <c r="C49" s="56"/>
+      <c r="C49" s="74"/>
       <c r="D49" s="7" t="s">
         <v>159</v>
       </c>
@@ -3242,8 +3301,8 @@
       <c r="B50" s="16">
         <v>46</v>
       </c>
-      <c r="C50" s="56"/>
-      <c r="D50" s="59" t="s">
+      <c r="C50" s="74"/>
+      <c r="D50" s="77" t="s">
         <v>162</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -3261,8 +3320,8 @@
       <c r="B51" s="16">
         <v>47</v>
       </c>
-      <c r="C51" s="56"/>
-      <c r="D51" s="58"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="76"/>
       <c r="E51" s="1" t="s">
         <v>92</v>
       </c>
@@ -3278,8 +3337,8 @@
       <c r="B52" s="16">
         <v>48</v>
       </c>
-      <c r="C52" s="56"/>
-      <c r="D52" s="59" t="s">
+      <c r="C52" s="74"/>
+      <c r="D52" s="77" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -3295,8 +3354,8 @@
       <c r="B53" s="16">
         <v>49</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="60"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="78"/>
       <c r="E53" s="1" t="s">
         <v>59</v>
       </c>
@@ -3310,8 +3369,8 @@
       <c r="B54" s="16">
         <v>50</v>
       </c>
-      <c r="C54" s="56"/>
-      <c r="D54" s="58"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="76"/>
       <c r="E54" s="1" t="s">
         <v>75</v>
       </c>
@@ -3325,8 +3384,8 @@
       <c r="B55" s="16">
         <v>51</v>
       </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="59" t="s">
+      <c r="C55" s="74"/>
+      <c r="D55" s="77" t="s">
         <v>53</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -3342,8 +3401,8 @@
       <c r="B56" s="16">
         <v>52</v>
       </c>
-      <c r="C56" s="56"/>
-      <c r="D56" s="60"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="78"/>
       <c r="E56" s="1" t="s">
         <v>152</v>
       </c>
@@ -3357,8 +3416,8 @@
       <c r="B57" s="16">
         <v>53</v>
       </c>
-      <c r="C57" s="56"/>
-      <c r="D57" s="58"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="76"/>
       <c r="E57" s="1" t="s">
         <v>153</v>
       </c>
@@ -3372,8 +3431,8 @@
       <c r="B58" s="16">
         <v>54</v>
       </c>
-      <c r="C58" s="56"/>
-      <c r="D58" s="59" t="s">
+      <c r="C58" s="74"/>
+      <c r="D58" s="77" t="s">
         <v>51</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -3391,8 +3450,8 @@
       <c r="B59" s="16">
         <v>55</v>
       </c>
-      <c r="C59" s="56"/>
-      <c r="D59" s="60"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="78"/>
       <c r="E59" s="1" t="s">
         <v>62</v>
       </c>
@@ -3408,8 +3467,8 @@
       <c r="B60" s="16">
         <v>56</v>
       </c>
-      <c r="C60" s="56"/>
-      <c r="D60" s="58"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="76"/>
       <c r="E60" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,8 +3484,8 @@
       <c r="B61" s="16">
         <v>57</v>
       </c>
-      <c r="C61" s="56"/>
-      <c r="D61" s="59" t="s">
+      <c r="C61" s="74"/>
+      <c r="D61" s="77" t="s">
         <v>73</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -3444,8 +3503,8 @@
       <c r="B62" s="16">
         <v>58</v>
       </c>
-      <c r="C62" s="56"/>
-      <c r="D62" s="60"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="78"/>
       <c r="E62" s="1" t="s">
         <v>81</v>
       </c>
@@ -3461,8 +3520,8 @@
       <c r="B63" s="16">
         <v>59</v>
       </c>
-      <c r="C63" s="56"/>
-      <c r="D63" s="60"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="78"/>
       <c r="E63" s="1" t="s">
         <v>86</v>
       </c>
@@ -3476,8 +3535,8 @@
       <c r="B64" s="17">
         <v>60</v>
       </c>
-      <c r="C64" s="56"/>
-      <c r="D64" s="60"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="78"/>
       <c r="E64" s="26" t="s">
         <v>82</v>
       </c>
@@ -3506,6 +3565,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C5:C27"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D27"/>
     <mergeCell ref="C28:C64"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="D30:D31"/>
@@ -3518,14 +3585,6 @@
     <mergeCell ref="D58:D60"/>
     <mergeCell ref="D61:D64"/>
     <mergeCell ref="D52:D54"/>
-    <mergeCell ref="C5:C27"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3537,8 +3596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C8757C-8D67-4A77-887F-BD62F4D75B41}">
   <dimension ref="B2:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3591,10 +3650,10 @@
       <c r="B5" s="15">
         <v>1</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="83" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="33" t="s">
@@ -3603,7 +3662,7 @@
       <c r="F5" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="51" t="s">
         <v>179</v>
       </c>
       <c r="H5" s="30"/>
@@ -3612,15 +3671,15 @@
       <c r="B6" s="16">
         <v>2</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="49"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="52" t="s">
         <v>180</v>
       </c>
       <c r="H6" s="14"/>
@@ -3629,7 +3688,7 @@
       <c r="B7" s="16">
         <v>3</v>
       </c>
-      <c r="C7" s="46"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="36" t="s">
         <v>114</v>
       </c>
@@ -3639,7 +3698,7 @@
       <c r="F7" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G7" s="71" t="s">
+      <c r="G7" s="52" t="s">
         <v>181</v>
       </c>
       <c r="H7" s="14"/>
@@ -3648,8 +3707,8 @@
       <c r="B8" s="16">
         <v>4</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="50" t="s">
+      <c r="C8" s="81"/>
+      <c r="D8" s="85" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -3658,7 +3717,7 @@
       <c r="F8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="53" t="s">
         <v>182</v>
       </c>
       <c r="H8" s="12"/>
@@ -3667,15 +3726,15 @@
       <c r="B9" s="16">
         <v>5</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="49"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="84"/>
       <c r="E9" s="1" t="s">
         <v>126</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="73" t="s">
+      <c r="G9" s="54" t="s">
         <v>183</v>
       </c>
       <c r="H9" s="12"/>
@@ -3684,8 +3743,8 @@
       <c r="B10" s="16">
         <v>6</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="50" t="s">
+      <c r="C10" s="81"/>
+      <c r="D10" s="85" t="s">
         <v>72</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -3694,7 +3753,7 @@
       <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="65" t="s">
+      <c r="G10" s="46" t="s">
         <v>174</v>
       </c>
       <c r="H10" s="12"/>
@@ -3703,15 +3762,15 @@
       <c r="B11" s="16">
         <v>7</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="48"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="67" t="s">
+      <c r="G11" s="48" t="s">
         <v>173</v>
       </c>
       <c r="H11" s="12"/>
@@ -3720,15 +3779,15 @@
       <c r="B12" s="16">
         <v>8</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="48"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="67" t="s">
+      <c r="G12" s="48" t="s">
         <v>175</v>
       </c>
       <c r="H12" s="12"/>
@@ -3737,15 +3796,15 @@
       <c r="B13" s="16">
         <v>9</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="49"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="84"/>
       <c r="E13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="67" t="s">
+      <c r="G13" s="48" t="s">
         <v>176</v>
       </c>
       <c r="H13" s="12"/>
@@ -3754,8 +3813,8 @@
       <c r="B14" s="16">
         <v>10</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="51" t="s">
+      <c r="C14" s="81"/>
+      <c r="D14" s="86" t="s">
         <v>44</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -3764,7 +3823,7 @@
       <c r="F14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="65" t="s">
+      <c r="G14" s="46" t="s">
         <v>174</v>
       </c>
       <c r="H14" s="13"/>
@@ -3773,15 +3832,15 @@
       <c r="B15" s="16">
         <v>11</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="52"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="87"/>
       <c r="E15" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="68" t="s">
+      <c r="G15" s="49" t="s">
         <v>177</v>
       </c>
       <c r="H15" s="20"/>
@@ -3790,15 +3849,15 @@
       <c r="B16" s="16">
         <v>12</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="52"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="69" t="s">
+      <c r="G16" s="50" t="s">
         <v>178</v>
       </c>
       <c r="H16" s="13"/>
@@ -3807,15 +3866,15 @@
       <c r="B17" s="16">
         <v>13</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="53"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="88"/>
       <c r="E17" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="69" t="s">
+      <c r="G17" s="50" t="s">
         <v>178</v>
       </c>
       <c r="H17" s="13"/>
@@ -3824,8 +3883,8 @@
       <c r="B18" s="16">
         <v>14</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="50" t="s">
+      <c r="C18" s="81"/>
+      <c r="D18" s="85" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -3843,8 +3902,8 @@
       <c r="B19" s="16">
         <v>15</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="48"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="83"/>
       <c r="E19" s="1" t="s">
         <v>119</v>
       </c>
@@ -3862,8 +3921,8 @@
       <c r="B20" s="16">
         <v>16</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="48"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="83"/>
       <c r="E20" s="1" t="s">
         <v>38</v>
       </c>
@@ -3879,8 +3938,8 @@
       <c r="B21" s="16">
         <v>17</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="49"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="84"/>
       <c r="E21" s="1" t="s">
         <v>79</v>
       </c>
@@ -3896,8 +3955,8 @@
       <c r="B22" s="16">
         <v>18</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="50" t="s">
+      <c r="C22" s="81"/>
+      <c r="D22" s="85" t="s">
         <v>80</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -3915,8 +3974,8 @@
       <c r="B23" s="16">
         <v>19</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="48"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="83"/>
       <c r="E23" s="1" t="s">
         <v>124</v>
       </c>
@@ -3934,8 +3993,8 @@
       <c r="B24" s="16">
         <v>20</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="49"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="84"/>
       <c r="E24" s="1" t="s">
         <v>82</v>
       </c>
@@ -3951,8 +4010,8 @@
       <c r="B25" s="17">
         <v>21</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="50" t="s">
+      <c r="C25" s="81"/>
+      <c r="D25" s="85" t="s">
         <v>106</v>
       </c>
       <c r="E25" s="32" t="s">
@@ -3972,8 +4031,8 @@
       <c r="B26" s="17">
         <v>22</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="48"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="83"/>
       <c r="E26" s="32" t="s">
         <v>103</v>
       </c>
@@ -3991,8 +4050,8 @@
       <c r="B27" s="42">
         <v>23</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="54"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="89"/>
       <c r="E27" s="9" t="s">
         <v>104</v>
       </c>
@@ -4028,7 +4087,7 @@
   <dimension ref="A2:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4037,8 +4096,8 @@
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="82" style="81" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.25" customWidth="1"/>
+    <col min="7" max="7" width="82" style="59" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4051,7 +4110,7 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="82"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -4070,21 +4129,21 @@
       <c r="F4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="86" t="s">
+      <c r="G4" s="61" t="s">
         <v>107</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="100">
+    <row r="5" spans="2:8" ht="99.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="69">
         <v>1</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="75" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -4093,32 +4152,36 @@
       <c r="F5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="85"/>
+      <c r="G5" s="102" t="s">
+        <v>261</v>
+      </c>
       <c r="H5" s="35"/>
     </row>
-    <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="100">
+    <row r="6" spans="2:8" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="69">
         <v>2</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="58"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G6" s="80"/>
+      <c r="G6" s="103" t="s">
+        <v>268</v>
+      </c>
       <c r="H6" s="23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="100">
+    <row r="7" spans="2:8" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="69">
         <v>3</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="59" t="s">
+      <c r="C7" s="74"/>
+      <c r="D7" s="77" t="s">
         <v>113</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -4127,34 +4190,38 @@
       <c r="F7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="83"/>
+      <c r="G7" s="104" t="s">
+        <v>270</v>
+      </c>
       <c r="H7" s="31" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="100">
+    <row r="8" spans="2:8" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="69">
         <v>4</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="58"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="80"/>
+      <c r="G8" s="103" t="s">
+        <v>269</v>
+      </c>
       <c r="H8" s="31" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="100">
+    <row r="9" spans="2:8" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="69">
         <v>5</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="59" t="s">
+      <c r="C9" s="74"/>
+      <c r="D9" s="77" t="s">
         <v>141</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -4163,33 +4230,33 @@
       <c r="F9" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="G9" s="84" t="s">
-        <v>134</v>
+      <c r="G9" s="105" t="s">
+        <v>262</v>
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="100">
+    <row r="10" spans="2:8" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="69">
         <v>6</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="58"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="76"/>
       <c r="E10" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="83" t="s">
-        <v>133</v>
+      <c r="G10" s="104" t="s">
+        <v>263</v>
       </c>
       <c r="H10" s="31"/>
     </row>
     <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="100">
+      <c r="B11" s="69">
         <v>7</v>
       </c>
-      <c r="C11" s="56"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="1" t="s">
         <v>114</v>
       </c>
@@ -4199,510 +4266,510 @@
       <c r="F11" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="83" t="s">
-        <v>138</v>
+      <c r="G11" s="52" t="s">
+        <v>264</v>
       </c>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="2:8" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="100">
+    <row r="12" spans="2:8" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="69">
         <v>8</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="92" t="s">
+      <c r="E12" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="F12" s="92" t="s">
+      <c r="F12" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="G12" s="75" t="s">
+      <c r="G12" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="H12" s="93" t="s">
+      <c r="H12" s="67" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="132.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="100">
+    <row r="13" spans="2:8" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="69">
         <v>9</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="92" t="s">
+      <c r="C13" s="74"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="F13" s="92" t="s">
+      <c r="F13" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="75" t="s">
+      <c r="G13" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="H13" s="93" t="s">
+      <c r="H13" s="67" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="100">
+      <c r="B14" s="69">
         <v>10</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="92" t="s">
+      <c r="C14" s="74"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="92" t="s">
+      <c r="F14" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="G14" s="75" t="s">
+      <c r="G14" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="H14" s="93" t="s">
+      <c r="H14" s="67" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="100">
+    <row r="15" spans="2:8" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="69">
         <v>11</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="92" t="s">
+      <c r="C15" s="74"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="66" t="s">
         <v>208</v>
       </c>
-      <c r="F15" s="92" t="s">
+      <c r="F15" s="66" t="s">
         <v>209</v>
       </c>
-      <c r="G15" s="75" t="s">
+      <c r="G15" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="H15" s="93" t="s">
+      <c r="H15" s="67" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="100">
+      <c r="B16" s="69">
         <v>12</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="92" t="s">
+      <c r="C16" s="74"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="F16" s="92" t="s">
+      <c r="F16" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="G16" s="75" t="s">
+      <c r="G16" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="H16" s="93" t="s">
+      <c r="H16" s="67" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="100">
+      <c r="B17" s="69">
         <v>13</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="92" t="s">
+      <c r="C17" s="74"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="92" t="s">
+      <c r="F17" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="G17" s="75" t="s">
+      <c r="G17" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="H17" s="93" t="s">
+      <c r="H17" s="67" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="100">
+    <row r="18" spans="1:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="69">
         <v>14</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="77"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="95"/>
       <c r="E18" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="94" t="s">
+      <c r="F18" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="G18" s="105" t="s">
+      <c r="G18" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="H18" s="95" t="s">
+      <c r="H18" s="93" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="100">
+    <row r="19" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="69">
         <v>15</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="94" t="s">
+      <c r="C19" s="74"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="G19" s="105" t="s">
+      <c r="G19" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="H19" s="96"/>
-    </row>
-    <row r="20" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="100">
+      <c r="H19" s="94"/>
+    </row>
+    <row r="20" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="69">
         <v>16</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="77"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="95"/>
       <c r="E20" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="94" t="s">
+      <c r="F20" s="68" t="s">
         <v>224</v>
       </c>
-      <c r="G20" s="105" t="s">
+      <c r="G20" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="H20" s="97" t="s">
+      <c r="H20" s="96" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="100">
+      <c r="B21" s="69">
         <v>17</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="94" t="s">
+      <c r="C21" s="74"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="G21" s="105" t="s">
+      <c r="G21" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="H21" s="98"/>
-    </row>
-    <row r="22" spans="1:8" s="79" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="100">
+      <c r="H21" s="97"/>
+    </row>
+    <row r="22" spans="1:8" s="58" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="69">
         <v>18</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="94" t="s">
+      <c r="C22" s="74"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="G22" s="105" t="s">
+      <c r="G22" s="72" t="s">
         <v>230</v>
       </c>
-      <c r="H22" s="98"/>
-    </row>
-    <row r="23" spans="1:8" s="79" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="100">
+      <c r="H22" s="97"/>
+    </row>
+    <row r="23" spans="1:8" s="58" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="69">
         <v>19</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="94" t="s">
+      <c r="C23" s="74"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="68" t="s">
         <v>231</v>
       </c>
-      <c r="G23" s="105" t="s">
+      <c r="G23" s="72" t="s">
         <v>232</v>
       </c>
-      <c r="H23" s="99"/>
-    </row>
-    <row r="24" spans="1:8" s="79" customFormat="1" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="100">
+      <c r="H23" s="98"/>
+    </row>
+    <row r="24" spans="1:8" s="58" customFormat="1" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="69">
         <v>20</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="92" t="s">
+      <c r="C24" s="74"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="92" t="s">
+      <c r="F24" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="75" t="s">
+      <c r="G24" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="H24" s="93" t="s">
+      <c r="H24" s="67" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="100">
+    <row r="25" spans="1:8" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="69">
         <v>21</v>
       </c>
-      <c r="C25" s="56"/>
+      <c r="C25" s="74"/>
       <c r="D25" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="92" t="s">
+      <c r="E25" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="92" t="s">
+      <c r="F25" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="G25" s="74" t="s">
+      <c r="G25" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="H25" s="93" t="s">
+      <c r="H25" s="67" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="99.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="100">
+      <c r="B26" s="69">
         <v>22</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="92" t="s">
+      <c r="C26" s="74"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="92" t="s">
+      <c r="F26" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="74" t="s">
+      <c r="G26" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="H26" s="93" t="s">
+      <c r="H26" s="67" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="100">
+      <c r="B27" s="69">
         <v>23</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="92" t="s">
+      <c r="C27" s="74"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="92" t="s">
+      <c r="F27" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="75" t="s">
+      <c r="G27" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="H27" s="93" t="s">
+      <c r="H27" s="67" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="100">
+      <c r="B28" s="69">
         <v>24</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="92" t="s">
+      <c r="C28" s="74"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="92" t="s">
+      <c r="F28" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="75" t="s">
+      <c r="G28" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="H28" s="93" t="s">
+      <c r="H28" s="67" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="79"/>
-      <c r="B29" s="100">
+      <c r="A29" s="58"/>
+      <c r="B29" s="69">
         <v>19</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="101" t="s">
+      <c r="C29" s="74"/>
+      <c r="D29" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="101" t="s">
+      <c r="E29" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="101" t="s">
+      <c r="F29" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="74" t="s">
+      <c r="G29" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="H29" s="102" t="s">
+      <c r="H29" s="71" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="100">
+    <row r="30" spans="1:8" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="69">
         <v>20</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="103" t="s">
+      <c r="C30" s="74"/>
+      <c r="D30" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="E30" s="92" t="s">
+      <c r="E30" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="92" t="s">
+      <c r="F30" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="75" t="s">
+      <c r="G30" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="H30" s="93" t="s">
+      <c r="H30" s="67" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="100">
+      <c r="B31" s="69">
         <v>21</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="92" t="s">
+      <c r="C31" s="74"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="92" t="s">
+      <c r="F31" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="G31" s="75" t="s">
+      <c r="G31" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="H31" s="93" t="s">
+      <c r="H31" s="67" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="132.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="100">
+    <row r="32" spans="1:8" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="69">
         <v>22</v>
       </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="101" t="s">
+      <c r="C32" s="74"/>
+      <c r="D32" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="E32" s="101" t="s">
+      <c r="E32" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="F32" s="101" t="s">
+      <c r="F32" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="G32" s="74" t="s">
+      <c r="G32" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="H32" s="93" t="s">
+      <c r="H32" s="67" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="100">
+    <row r="33" spans="2:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="69">
         <v>23</v>
       </c>
-      <c r="C33" s="56"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="E33" s="92" t="s">
+      <c r="E33" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="75" t="s">
+      <c r="F33" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="G33" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="H33" s="93" t="s">
+      <c r="H33" s="67" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="100">
+      <c r="B34" s="69">
         <v>24</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="92" t="s">
+      <c r="C34" s="74"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="F34" s="92" t="s">
+      <c r="F34" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G34" s="75" t="s">
+      <c r="G34" s="56" t="s">
         <v>253</v>
       </c>
-      <c r="H34" s="93" t="s">
+      <c r="H34" s="67" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="100">
+      <c r="B35" s="69">
         <v>25</v>
       </c>
-      <c r="C35" s="56"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="92" t="s">
+      <c r="E35" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="92" t="s">
+      <c r="F35" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="G35" s="75" t="s">
+      <c r="G35" s="56" t="s">
         <v>255</v>
       </c>
-      <c r="H35" s="93" t="s">
+      <c r="H35" s="67" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="100">
+      <c r="B36" s="69">
         <v>26</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="92" t="s">
+      <c r="C36" s="74"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="92" t="s">
+      <c r="F36" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="75" t="s">
+      <c r="G36" s="56" t="s">
         <v>257</v>
       </c>
-      <c r="H36" s="93" t="s">
+      <c r="H36" s="67" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="100">
+      <c r="B37" s="69">
         <v>27</v>
       </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="92" t="s">
+      <c r="C37" s="74"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" s="75" t="s">
+      <c r="F37" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="G37" s="56" t="s">
         <v>259</v>
       </c>
-      <c r="H37" s="93" t="s">
+      <c r="H37" s="67" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="100">
+      <c r="B38" s="69">
         <v>28</v>
       </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="59" t="s">
+      <c r="C38" s="74"/>
+      <c r="D38" s="77" t="s">
         <v>53</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -4711,51 +4778,51 @@
       <c r="F38" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G38" s="78" t="s">
+      <c r="G38" s="57" t="s">
         <v>190</v>
       </c>
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="100">
+      <c r="B39" s="69">
         <v>29</v>
       </c>
-      <c r="C39" s="56"/>
-      <c r="D39" s="60"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="78"/>
       <c r="E39" s="1" t="s">
         <v>152</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G39" s="78" t="s">
+      <c r="G39" s="57" t="s">
         <v>191</v>
       </c>
       <c r="H39" s="23"/>
     </row>
-    <row r="40" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="100">
+    <row r="40" spans="2:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="69">
         <v>30</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="58"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="76"/>
       <c r="E40" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" s="78" t="s">
+      <c r="F40" s="103" t="s">
+        <v>265</v>
+      </c>
+      <c r="G40" s="57" t="s">
         <v>192</v>
       </c>
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="100">
+      <c r="B41" s="69">
         <v>31</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="59" t="s">
+      <c r="C41" s="74"/>
+      <c r="D41" s="77" t="s">
         <v>51</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -4764,7 +4831,7 @@
       <c r="F41" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G41" s="78" t="s">
+      <c r="G41" s="57" t="s">
         <v>193</v>
       </c>
       <c r="H41" s="23" t="s">
@@ -4772,18 +4839,18 @@
       </c>
     </row>
     <row r="42" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="100">
+      <c r="B42" s="69">
         <v>32</v>
       </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="60"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="78"/>
       <c r="E42" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G42" s="88" t="s">
+      <c r="G42" s="63" t="s">
         <v>196</v>
       </c>
       <c r="H42" s="23" t="s">
@@ -4791,90 +4858,90 @@
       </c>
     </row>
     <row r="43" spans="2:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="100">
+      <c r="B43" s="69">
         <v>33</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="58"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="76"/>
       <c r="E43" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G43" s="89" t="s">
+      <c r="G43" s="64" t="s">
         <v>189</v>
       </c>
       <c r="H43" s="23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="100">
+    <row r="44" spans="2:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="69">
         <v>34</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="59" t="s">
+      <c r="C44" s="74"/>
+      <c r="D44" s="77" t="s">
         <v>73</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G44" s="90" t="s">
+      <c r="F44" s="103" t="s">
+        <v>266</v>
+      </c>
+      <c r="G44" s="65" t="s">
         <v>194</v>
       </c>
       <c r="H44" s="23"/>
     </row>
-    <row r="45" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="100">
+    <row r="45" spans="2:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="69">
         <v>35</v>
       </c>
-      <c r="C45" s="56"/>
-      <c r="D45" s="60"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="78"/>
       <c r="E45" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G45" s="90" t="s">
+      <c r="F45" s="103" t="s">
+        <v>267</v>
+      </c>
+      <c r="G45" s="65" t="s">
         <v>195</v>
       </c>
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="100">
+      <c r="B46" s="69">
         <v>36</v>
       </c>
-      <c r="C46" s="56"/>
-      <c r="D46" s="60"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="78"/>
       <c r="E46" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G46" s="78" t="s">
+      <c r="G46" s="57" t="s">
         <v>197</v>
       </c>
       <c r="H46" s="23"/>
     </row>
     <row r="47" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="66">
+      <c r="B47" s="47">
         <v>37</v>
       </c>
-      <c r="C47" s="63"/>
-      <c r="D47" s="64"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="99"/>
       <c r="E47" s="9" t="s">
         <v>82</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G47" s="87" t="s">
+      <c r="G47" s="62" t="s">
         <v>198</v>
       </c>
       <c r="H47" s="24"/>
